--- a/AAII_Financials/Yearly/AKTS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKTS_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Yearly/AKTS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKTS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>AKTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,72 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42460</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41851</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41486</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -737,23 +740,26 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="E9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+      <c r="F9" s="3">
+        <v>1000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -770,21 +776,24 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,9 +809,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -815,38 +827,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E12" s="3">
         <v>16800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -874,24 +890,27 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1700</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,21 +923,24 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="3">
         <v>2400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1300</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
       </c>
@@ -934,9 +956,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -946,68 +971,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E17" s="3">
         <v>29000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3900</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-27600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-22300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,80 +1052,87 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-23900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,39 +1148,45 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-29200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3700</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1169,9 +1214,12 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1199,69 +1247,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-29200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-29200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-21700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1289,9 +1346,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1319,9 +1379,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,9 +1412,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1379,69 +1445,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-29200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-21700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1469,74 +1544,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-29200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-21700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42460</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41851</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41486</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1549,8 +1633,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1563,38 +1648,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E41" s="3">
         <v>30100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1622,21 +1711,24 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1652,9 +1744,12 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1665,16 +1760,16 @@
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -1682,29 +1777,32 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="I45" s="3">
+        <v>100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1712,39 +1810,45 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E46" s="3">
         <v>31700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1772,29 +1876,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E48" s="3">
         <v>15200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>12800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1802,29 +1909,32 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>500</v>
+      </c>
+      <c r="E49" s="3">
         <v>400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>100</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1832,9 +1942,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1862,9 +1975,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1892,29 +2008,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -1922,9 +2041,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1952,39 +2074,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>71400</v>
+      </c>
+      <c r="E54" s="3">
         <v>47900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3100</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1997,8 +2125,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2011,38 +2140,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
       </c>
       <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2055,39 +2188,42 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2100,51 +2236,57 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E60" s="3">
         <v>3700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
-        <v>0</v>
-      </c>
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E61" s="3">
         <v>18200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2160,9 +2302,12 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2170,29 +2315,32 @@
         <v>600</v>
       </c>
       <c r="E62" s="3">
+        <v>600</v>
+      </c>
+      <c r="F62" s="3">
         <v>1300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2220,9 +2368,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2250,9 +2401,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2280,39 +2434,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E66" s="3">
         <v>22000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
-        <v>0</v>
-      </c>
       <c r="J66" s="3">
         <v>0</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2325,8 +2485,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2354,9 +2515,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2384,9 +2548,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2414,9 +2581,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2444,39 +2614,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-67500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-38200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
       <c r="J72" s="3">
         <v>0</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2504,9 +2680,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2534,9 +2713,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2564,39 +2746,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E76" s="3">
         <v>26000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>15000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2400</v>
       </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
       <c r="J76" s="3">
         <v>0</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2624,74 +2812,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42460</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41851</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41486</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-29200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-21700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2704,28 +2901,29 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2733,9 +2931,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2763,9 +2964,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2793,9 +2997,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2823,9 +3030,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2853,9 +3063,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2883,39 +3096,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-14200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2800</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2928,38 +3147,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2987,9 +3210,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3017,29 +3243,32 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+      <c r="I94" s="3">
+        <v>-200</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3047,9 +3276,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3062,8 +3294,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3091,9 +3324,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3121,9 +3357,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3151,9 +3390,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3181,39 +3423,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E100" s="3">
         <v>37900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>26400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3241,37 +3489,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E102" s="3">
         <v>15300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AKTS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKTS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>AKTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,78 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42460</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41851</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41486</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -743,26 +746,29 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
       </c>
       <c r="F9" s="3">
         <v>1000</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+      <c r="G9" s="3">
+        <v>1000</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -779,24 +785,27 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,9 +821,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -828,41 +840,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E12" s="3">
         <v>20500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>16800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -893,27 +909,30 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1700</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -926,24 +945,27 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
         <v>2400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1300</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
       </c>
@@ -959,9 +981,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -972,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E17" s="3">
         <v>33800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>29000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3900</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-27600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1053,89 +1085,96 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-28500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-23900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E22" s="3">
         <v>4600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1151,42 +1190,48 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-36100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-29200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3700</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1217,9 +1262,12 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1250,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-29200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-29200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1349,9 +1406,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1382,9 +1442,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1415,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1448,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-36100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-29200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1547,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-36100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-29200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42460</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41851</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41486</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1634,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1649,41 +1734,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>88300</v>
+      </c>
+      <c r="E41" s="3">
         <v>44300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1714,24 +1803,27 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,14 +1839,17 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
@@ -1763,16 +1858,16 @@
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1780,32 +1875,35 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1813,42 +1911,48 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E46" s="3">
         <v>46200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>31700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2800</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1879,32 +1983,35 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E48" s="3">
         <v>24300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>15200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>12800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>200</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1912,32 +2019,35 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>600</v>
+      </c>
+      <c r="E49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -1945,9 +2055,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1978,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2011,32 +2127,35 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2044,9 +2163,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2077,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E54" s="3">
         <v>71400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>29300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3100</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,61 +2270,65 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2203,30 +2336,33 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2239,57 +2375,63 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
         <v>6100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
-        <v>0</v>
-      </c>
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>23200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>18200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11500</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2305,42 +2447,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E62" s="3">
         <v>600</v>
       </c>
       <c r="F62" s="3">
+        <v>600</v>
+      </c>
+      <c r="G62" s="3">
         <v>1300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2371,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2404,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2437,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E66" s="3">
         <v>29900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
       <c r="K66" s="3">
         <v>0</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2486,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2518,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2551,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2617,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-147800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-103600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-67500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-38200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
-        <v>0</v>
-      </c>
       <c r="K72" s="3">
         <v>0</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2683,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2716,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2749,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>117400</v>
+      </c>
+      <c r="E76" s="3">
         <v>41500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>26000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2400</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2815,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42460</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41851</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41486</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-36100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-29200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2902,31 +3099,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2934,9 +3132,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2967,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3000,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3033,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3066,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3099,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-17700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-14200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3148,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3213,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3246,32 +3472,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-7000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="J94" s="3">
+        <v>-200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3279,9 +3508,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3295,8 +3527,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3327,9 +3560,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3360,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3393,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3426,42 +3668,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>85800</v>
+      </c>
+      <c r="E100" s="3">
         <v>45500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>37900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>26400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3492,40 +3740,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E102" s="3">
         <v>14300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>15300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AKTS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKTS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>AKTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,84 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42460</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41851</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41486</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E8" s="3">
         <v>6600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -749,29 +752,32 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E9" s="3">
         <v>10700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1000</v>
       </c>
       <c r="G9" s="3">
         <v>1000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+      <c r="H9" s="3">
+        <v>1000</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -788,27 +794,30 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-4000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,9 +833,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,44 +853,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E12" s="3">
         <v>24100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>20500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>16800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,30 +928,33 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1600</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1700</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -948,9 +967,12 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,15 +982,15 @@
       <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
         <v>2400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1300</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
@@ -984,9 +1006,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -998,80 +1023,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E17" s="3">
         <v>46400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>33800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>29000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3900</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-39800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-27600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-22300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,98 +1118,105 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-34400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-28500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-23900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-20100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>5100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1193,68 +1232,74 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-44200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-36100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-29200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+        <v>-1800</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1265,9 +1310,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1301,81 +1349,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-44200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-29200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-44200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-29200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1409,9 +1466,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1445,9 +1505,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1481,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1517,81 +1583,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-44200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-36100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-29200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1625,86 +1700,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-44200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-36100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-29200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42460</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41851</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41486</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1719,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,44 +1820,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E41" s="3">
         <v>88300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>30100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1806,27 +1895,30 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1842,17 +1934,20 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1400</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -1861,16 +1956,16 @@
         <v>100</v>
       </c>
       <c r="H44" s="3">
+        <v>100</v>
+      </c>
+      <c r="I44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -1878,35 +1973,38 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>100</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -1914,45 +2012,51 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>91700</v>
+      </c>
+      <c r="E46" s="3">
         <v>93200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>46200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>31700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2800</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1986,35 +2090,38 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E48" s="3">
         <v>31200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>15200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>12800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7900</v>
-      </c>
-      <c r="I48" s="3">
-        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>200</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
@@ -2022,35 +2129,38 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E49" s="3">
         <v>600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2058,9 +2168,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,35 +2246,38 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2166,9 +2285,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2202,45 +2324,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>161300</v>
+      </c>
+      <c r="E54" s="3">
         <v>125000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>71400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>29300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2255,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2271,44 +2400,48 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2339,33 +2472,36 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2378,63 +2514,69 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>43700</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>23200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>18200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2450,45 +2592,51 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
-      </c>
-      <c r="E62" s="3">
-        <v>600</v>
       </c>
       <c r="F62" s="3">
         <v>600</v>
       </c>
       <c r="G62" s="3">
+        <v>600</v>
+      </c>
+      <c r="H62" s="3">
         <v>1300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2522,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2558,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,45 +2748,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E66" s="3">
         <v>7600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
-        <v>0</v>
-      </c>
       <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2647,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2682,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2718,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2754,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2790,45 +2960,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-206800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-147800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-103600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-67500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-38200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
       <c r="L72" s="3">
         <v>0</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2898,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2934,45 +3116,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>103400</v>
+      </c>
+      <c r="E76" s="3">
         <v>117400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>41500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>26000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2400</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3006,86 +3194,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42460</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41851</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41486</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-44200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-36100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-29200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3100,34 +3297,35 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
@@ -3135,9 +3333,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3171,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3207,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3243,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3279,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,45 +3528,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-29400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-17700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3368,44 +3587,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3439,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3475,35 +3701,38 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4500</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>-200</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
@@ -3511,9 +3740,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3528,8 +3760,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3563,9 +3796,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3599,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3635,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3671,45 +3913,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>72300</v>
+      </c>
+      <c r="E100" s="3">
         <v>85800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>45500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>37900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>26400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3743,43 +3991,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>43900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>15300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/AKTS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/AKTS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>AKTS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,90 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42460</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41851</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41486</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E8" s="3">
         <v>15400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -755,32 +758,35 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E9" s="3">
         <v>19500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>10700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1000</v>
       </c>
       <c r="H9" s="3">
         <v>1000</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+      <c r="I9" s="3">
+        <v>1000</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -797,30 +803,33 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-4100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-4000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -836,9 +845,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,47 +866,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E12" s="3">
         <v>35700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>16800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>5000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1200</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,33 +947,36 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1700</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -970,9 +989,12 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -985,15 +1007,15 @@
       <c r="F15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3">
         <v>2400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1300</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1009,9 +1031,12 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,86 +1049,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E17" s="3">
         <v>75900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>46400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>33800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>29000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>23500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3900</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-66100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-60600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-39800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,107 +1151,114 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-53100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-34400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-28500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-23900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-20100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1235,74 +1274,80 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-61000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-44200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-36100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-29200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-21700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1800</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1313,9 +1358,12 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1352,87 +1400,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-59200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-44200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-36100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-29200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-21700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-59000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-44200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-36100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-29200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-21700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1469,9 +1526,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1508,9 +1568,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1547,9 +1610,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,87 +1652,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-59000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-44200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-36100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-29200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-21700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,92 +1778,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-59000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-44200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-36100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-29200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-21700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42460</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41851</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41486</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,8 +1888,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1821,47 +1906,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>43100</v>
+      </c>
+      <c r="E41" s="3">
         <v>80500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>88300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>30100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1898,30 +1987,33 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,20 +2029,23 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E44" s="3">
         <v>4100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -1959,16 +2054,16 @@
         <v>100</v>
       </c>
       <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
         <v>200</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -1976,38 +2071,41 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="L45" s="3">
+        <v>100</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2015,48 +2113,54 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E46" s="3">
         <v>91700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>93200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>46200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2800</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2093,38 +2197,41 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E48" s="3">
         <v>52300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>15200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>12800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7900</v>
-      </c>
-      <c r="J48" s="3">
-        <v>200</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="L48" s="3">
+        <v>200</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2132,38 +2239,41 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>29800</v>
+      </c>
+      <c r="E49" s="3">
         <v>17000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2171,9 +2281,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2323,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,38 +2365,41 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>100</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2288,9 +2407,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,48 +2449,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>148900</v>
+      </c>
+      <c r="E54" s="3">
         <v>161300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>125000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>71400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>29300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3100</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2512,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,47 +2530,51 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2475,36 +2608,39 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E59" s="3">
         <v>9000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>900</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2517,69 +2653,75 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E60" s="3">
         <v>12700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
-        <v>0</v>
-      </c>
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E61" s="3">
         <v>43700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>23200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>18200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>11500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2595,48 +2737,54 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>600</v>
       </c>
       <c r="G62" s="3">
         <v>600</v>
       </c>
       <c r="H62" s="3">
+        <v>600</v>
+      </c>
+      <c r="I62" s="3">
         <v>1300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2821,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2712,9 +2863,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,48 +2905,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E66" s="3">
         <v>57900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
-        <v>0</v>
-      </c>
       <c r="M66" s="3">
         <v>0</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2968,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3007,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,9 +3049,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2924,9 +3091,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,48 +3133,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-270400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-206800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-147800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-103600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-67500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-38200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4200</v>
       </c>
-      <c r="L72" s="3">
-        <v>0</v>
-      </c>
       <c r="M72" s="3">
         <v>0</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3217,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3259,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,48 +3301,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86200</v>
+      </c>
+      <c r="E76" s="3">
         <v>103400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>117400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>41500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>26000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2400</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,92 +3385,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42460</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41851</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41486</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-63600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-59000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-44200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-36100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-29200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-21700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,37 +3495,38 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3336,9 +3534,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3576,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3618,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3660,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3702,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,48 +3744,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-45200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-29400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-14200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,47 +3807,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3888,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,38 +3930,41 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-34900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4500</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>-200</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
@@ -3743,9 +3972,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,8 +3993,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3799,9 +4032,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4074,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4116,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,48 +4158,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E100" s="3">
         <v>72300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>85800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>45500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>37900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>26400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3994,46 +4242,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>43900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>15300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3"/>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
